--- a/Proyectos/Mario_BisecciónTemporal/Datos_Paty.xlsx
+++ b/Proyectos/Mario_BisecciónTemporal/Datos_Paty.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana\Desktop\Felisa\Proyectos\Mario_BisecciónTemporal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\Proyectos\Mario_BisecciónTemporal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="17">
   <si>
     <t>sujeto</t>
   </si>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J241"/>
+  <dimension ref="A1:J281"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
+      <selection activeCell="T239" sqref="T239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8119,6 +8119,1286 @@
         <v>38</v>
       </c>
     </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>99</v>
+      </c>
+      <c r="B242" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D242" s="7">
+        <v>1</v>
+      </c>
+      <c r="E242" s="7">
+        <v>33</v>
+      </c>
+      <c r="F242" s="7">
+        <v>9</v>
+      </c>
+      <c r="G242" s="7">
+        <v>12</v>
+      </c>
+      <c r="H242" s="7">
+        <v>36</v>
+      </c>
+      <c r="I242" s="7">
+        <v>45</v>
+      </c>
+      <c r="J242" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A243" s="7">
+        <v>99</v>
+      </c>
+      <c r="B243" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D243" s="7">
+        <v>2</v>
+      </c>
+      <c r="E243" s="7">
+        <v>30</v>
+      </c>
+      <c r="F243" s="7">
+        <v>4</v>
+      </c>
+      <c r="G243" s="7">
+        <v>5</v>
+      </c>
+      <c r="H243" s="7">
+        <v>38</v>
+      </c>
+      <c r="I243" s="7">
+        <v>35</v>
+      </c>
+      <c r="J243" s="7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A244" s="7">
+        <v>99</v>
+      </c>
+      <c r="B244" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D244" s="7">
+        <v>3</v>
+      </c>
+      <c r="E244" s="7">
+        <v>42</v>
+      </c>
+      <c r="F244" s="7">
+        <v>5</v>
+      </c>
+      <c r="G244" s="7">
+        <v>3</v>
+      </c>
+      <c r="H244" s="7">
+        <v>38</v>
+      </c>
+      <c r="I244" s="7">
+        <v>45</v>
+      </c>
+      <c r="J244" s="7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A245" s="7">
+        <v>99</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D245" s="7">
+        <v>4</v>
+      </c>
+      <c r="E245" s="7">
+        <v>27</v>
+      </c>
+      <c r="F245" s="7">
+        <v>6</v>
+      </c>
+      <c r="G245" s="7">
+        <v>5</v>
+      </c>
+      <c r="H245" s="7">
+        <v>31</v>
+      </c>
+      <c r="I245" s="7">
+        <v>32</v>
+      </c>
+      <c r="J245" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A246" s="7">
+        <v>99</v>
+      </c>
+      <c r="B246" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D246" s="7">
+        <v>5</v>
+      </c>
+      <c r="E246" s="7">
+        <v>20</v>
+      </c>
+      <c r="F246" s="7">
+        <v>1</v>
+      </c>
+      <c r="G246" s="7">
+        <v>6</v>
+      </c>
+      <c r="H246" s="7">
+        <v>20</v>
+      </c>
+      <c r="I246" s="7">
+        <v>26</v>
+      </c>
+      <c r="J246" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A247" s="7">
+        <v>99</v>
+      </c>
+      <c r="B247" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D247" s="7">
+        <v>6</v>
+      </c>
+      <c r="E247" s="7">
+        <v>27</v>
+      </c>
+      <c r="F247" s="7">
+        <v>4</v>
+      </c>
+      <c r="G247" s="7">
+        <v>3</v>
+      </c>
+      <c r="H247" s="7">
+        <v>23</v>
+      </c>
+      <c r="I247" s="7">
+        <v>30</v>
+      </c>
+      <c r="J247" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A248" s="7">
+        <v>99</v>
+      </c>
+      <c r="B248" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D248" s="7">
+        <v>7</v>
+      </c>
+      <c r="E248" s="7">
+        <v>27</v>
+      </c>
+      <c r="F248" s="7">
+        <v>3</v>
+      </c>
+      <c r="G248" s="7">
+        <v>1</v>
+      </c>
+      <c r="H248" s="7">
+        <v>22</v>
+      </c>
+      <c r="I248" s="7">
+        <v>28</v>
+      </c>
+      <c r="J248" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A249" s="7">
+        <v>99</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D249" s="7">
+        <v>8</v>
+      </c>
+      <c r="E249" s="7">
+        <v>29</v>
+      </c>
+      <c r="F249" s="7">
+        <v>5</v>
+      </c>
+      <c r="G249" s="7">
+        <v>8</v>
+      </c>
+      <c r="H249" s="7">
+        <v>39</v>
+      </c>
+      <c r="I249" s="7">
+        <v>37</v>
+      </c>
+      <c r="J249" s="7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A250" s="7">
+        <v>99</v>
+      </c>
+      <c r="B250" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D250" s="7">
+        <v>9</v>
+      </c>
+      <c r="E250" s="7">
+        <v>43</v>
+      </c>
+      <c r="F250" s="7">
+        <v>6</v>
+      </c>
+      <c r="G250" s="7">
+        <v>3</v>
+      </c>
+      <c r="H250" s="7">
+        <v>42</v>
+      </c>
+      <c r="I250" s="7">
+        <v>46</v>
+      </c>
+      <c r="J250" s="7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A251" s="7">
+        <v>99</v>
+      </c>
+      <c r="B251" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C251" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D251" s="7">
+        <v>10</v>
+      </c>
+      <c r="E251" s="7">
+        <v>35</v>
+      </c>
+      <c r="F251" s="7">
+        <v>3</v>
+      </c>
+      <c r="G251" s="7">
+        <v>0</v>
+      </c>
+      <c r="H251" s="7">
+        <v>35</v>
+      </c>
+      <c r="I251" s="7">
+        <v>35</v>
+      </c>
+      <c r="J251" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A252" s="7">
+        <v>99</v>
+      </c>
+      <c r="B252" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D252" s="7">
+        <v>1</v>
+      </c>
+      <c r="E252" s="7">
+        <v>19</v>
+      </c>
+      <c r="F252" s="7">
+        <v>11</v>
+      </c>
+      <c r="G252" s="7">
+        <v>8</v>
+      </c>
+      <c r="H252" s="7">
+        <v>18</v>
+      </c>
+      <c r="I252" s="7">
+        <v>27</v>
+      </c>
+      <c r="J252" s="7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A253" s="7">
+        <v>99</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C253" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D253" s="7">
+        <v>2</v>
+      </c>
+      <c r="E253" s="7">
+        <v>34</v>
+      </c>
+      <c r="F253" s="7">
+        <v>7</v>
+      </c>
+      <c r="G253" s="7">
+        <v>11</v>
+      </c>
+      <c r="H253" s="7">
+        <v>31</v>
+      </c>
+      <c r="I253" s="7">
+        <v>45</v>
+      </c>
+      <c r="J253" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A254" s="7">
+        <v>99</v>
+      </c>
+      <c r="B254" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C254" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D254" s="7">
+        <v>3</v>
+      </c>
+      <c r="E254" s="7">
+        <v>20</v>
+      </c>
+      <c r="F254" s="7">
+        <v>7</v>
+      </c>
+      <c r="G254" s="7">
+        <v>4</v>
+      </c>
+      <c r="H254" s="7">
+        <v>15</v>
+      </c>
+      <c r="I254" s="7">
+        <v>24</v>
+      </c>
+      <c r="J254" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A255" s="7">
+        <v>99</v>
+      </c>
+      <c r="B255" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D255" s="7">
+        <v>4</v>
+      </c>
+      <c r="E255" s="7">
+        <v>31</v>
+      </c>
+      <c r="F255" s="7">
+        <v>12</v>
+      </c>
+      <c r="G255" s="7">
+        <v>9</v>
+      </c>
+      <c r="H255" s="7">
+        <v>29</v>
+      </c>
+      <c r="I255" s="7">
+        <v>40</v>
+      </c>
+      <c r="J255" s="7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A256" s="7">
+        <v>99</v>
+      </c>
+      <c r="B256" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C256" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D256" s="7">
+        <v>5</v>
+      </c>
+      <c r="E256" s="7">
+        <v>30</v>
+      </c>
+      <c r="F256" s="7">
+        <v>10</v>
+      </c>
+      <c r="G256" s="7">
+        <v>6</v>
+      </c>
+      <c r="H256" s="7">
+        <v>34</v>
+      </c>
+      <c r="I256" s="7">
+        <v>36</v>
+      </c>
+      <c r="J256" s="7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A257" s="7">
+        <v>99</v>
+      </c>
+      <c r="B257" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D257" s="7">
+        <v>6</v>
+      </c>
+      <c r="E257" s="7">
+        <v>31</v>
+      </c>
+      <c r="F257" s="7">
+        <v>1</v>
+      </c>
+      <c r="G257" s="7">
+        <v>3</v>
+      </c>
+      <c r="H257" s="7">
+        <v>32</v>
+      </c>
+      <c r="I257" s="7">
+        <v>34</v>
+      </c>
+      <c r="J257" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A258" s="7">
+        <v>99</v>
+      </c>
+      <c r="B258" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D258" s="7">
+        <v>7</v>
+      </c>
+      <c r="E258" s="7">
+        <v>32</v>
+      </c>
+      <c r="F258" s="7">
+        <v>4</v>
+      </c>
+      <c r="G258" s="7">
+        <v>11</v>
+      </c>
+      <c r="H258" s="7">
+        <v>32</v>
+      </c>
+      <c r="I258" s="7">
+        <v>43</v>
+      </c>
+      <c r="J258" s="7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A259" s="7">
+        <v>99</v>
+      </c>
+      <c r="B259" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C259" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D259" s="7">
+        <v>8</v>
+      </c>
+      <c r="E259" s="7">
+        <v>33</v>
+      </c>
+      <c r="F259" s="7">
+        <v>5</v>
+      </c>
+      <c r="G259" s="7">
+        <v>11</v>
+      </c>
+      <c r="H259" s="7">
+        <v>29</v>
+      </c>
+      <c r="I259" s="7">
+        <v>44</v>
+      </c>
+      <c r="J259" s="7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A260" s="7">
+        <v>99</v>
+      </c>
+      <c r="B260" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C260" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D260" s="7">
+        <v>9</v>
+      </c>
+      <c r="E260" s="7">
+        <v>39</v>
+      </c>
+      <c r="F260" s="7">
+        <v>7</v>
+      </c>
+      <c r="G260" s="7">
+        <v>3</v>
+      </c>
+      <c r="H260" s="7">
+        <v>32</v>
+      </c>
+      <c r="I260" s="7">
+        <v>42</v>
+      </c>
+      <c r="J260" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A261" s="7">
+        <v>99</v>
+      </c>
+      <c r="B261" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C261" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D261" s="7">
+        <v>10</v>
+      </c>
+      <c r="E261" s="7">
+        <v>32</v>
+      </c>
+      <c r="F261" s="7">
+        <v>12</v>
+      </c>
+      <c r="G261" s="7">
+        <v>6</v>
+      </c>
+      <c r="H261" s="7">
+        <v>24</v>
+      </c>
+      <c r="I261" s="7">
+        <v>38</v>
+      </c>
+      <c r="J261" s="7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A262" s="7">
+        <v>99</v>
+      </c>
+      <c r="B262" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C262" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D262" s="7">
+        <v>1</v>
+      </c>
+      <c r="E262" s="7">
+        <v>28</v>
+      </c>
+      <c r="F262" s="7">
+        <v>4</v>
+      </c>
+      <c r="G262" s="7">
+        <v>2</v>
+      </c>
+      <c r="H262" s="7">
+        <v>26</v>
+      </c>
+      <c r="I262" s="7">
+        <v>30</v>
+      </c>
+      <c r="J262" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A263" s="7">
+        <v>99</v>
+      </c>
+      <c r="B263" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C263" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D263" s="7">
+        <v>2</v>
+      </c>
+      <c r="E263" s="7">
+        <v>42</v>
+      </c>
+      <c r="F263" s="7">
+        <v>5</v>
+      </c>
+      <c r="G263" s="7">
+        <v>0</v>
+      </c>
+      <c r="H263" s="7">
+        <v>28</v>
+      </c>
+      <c r="I263" s="7">
+        <v>42</v>
+      </c>
+      <c r="J263" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A264" s="7">
+        <v>99</v>
+      </c>
+      <c r="B264" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C264" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D264" s="7">
+        <v>3</v>
+      </c>
+      <c r="E264" s="7">
+        <v>26</v>
+      </c>
+      <c r="F264" s="7">
+        <v>3</v>
+      </c>
+      <c r="G264" s="7">
+        <v>2</v>
+      </c>
+      <c r="H264" s="7">
+        <v>30</v>
+      </c>
+      <c r="I264" s="7">
+        <v>28</v>
+      </c>
+      <c r="J264" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A265" s="7">
+        <v>99</v>
+      </c>
+      <c r="B265" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C265" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D265" s="7">
+        <v>4</v>
+      </c>
+      <c r="E265" s="7">
+        <v>35</v>
+      </c>
+      <c r="F265" s="7">
+        <v>5</v>
+      </c>
+      <c r="G265" s="7">
+        <v>3</v>
+      </c>
+      <c r="H265" s="7">
+        <v>33</v>
+      </c>
+      <c r="I265" s="7">
+        <v>38</v>
+      </c>
+      <c r="J265" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A266" s="7">
+        <v>99</v>
+      </c>
+      <c r="B266" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C266" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D266" s="7">
+        <v>5</v>
+      </c>
+      <c r="E266" s="7">
+        <v>36</v>
+      </c>
+      <c r="F266" s="7">
+        <v>4</v>
+      </c>
+      <c r="G266" s="7">
+        <v>6</v>
+      </c>
+      <c r="H266" s="7">
+        <v>33</v>
+      </c>
+      <c r="I266" s="7">
+        <v>42</v>
+      </c>
+      <c r="J266" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A267" s="7">
+        <v>99</v>
+      </c>
+      <c r="B267" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C267" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D267" s="7">
+        <v>6</v>
+      </c>
+      <c r="E267" s="7">
+        <v>35</v>
+      </c>
+      <c r="F267" s="7">
+        <v>12</v>
+      </c>
+      <c r="G267" s="7">
+        <v>10</v>
+      </c>
+      <c r="H267" s="7">
+        <v>36</v>
+      </c>
+      <c r="I267" s="7">
+        <v>45</v>
+      </c>
+      <c r="J267" s="7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A268" s="7">
+        <v>99</v>
+      </c>
+      <c r="B268" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C268" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D268" s="7">
+        <v>7</v>
+      </c>
+      <c r="E268" s="7">
+        <v>33</v>
+      </c>
+      <c r="F268" s="7">
+        <v>6</v>
+      </c>
+      <c r="G268" s="7">
+        <v>9</v>
+      </c>
+      <c r="H268" s="7">
+        <v>31</v>
+      </c>
+      <c r="I268" s="7">
+        <v>42</v>
+      </c>
+      <c r="J268" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A269" s="7">
+        <v>99</v>
+      </c>
+      <c r="B269" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C269" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D269" s="7">
+        <v>8</v>
+      </c>
+      <c r="E269" s="7">
+        <v>36</v>
+      </c>
+      <c r="F269" s="7">
+        <v>1</v>
+      </c>
+      <c r="G269" s="7">
+        <v>0</v>
+      </c>
+      <c r="H269" s="7">
+        <v>38</v>
+      </c>
+      <c r="I269" s="7">
+        <v>36</v>
+      </c>
+      <c r="J269" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A270" s="7">
+        <v>99</v>
+      </c>
+      <c r="B270" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C270" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D270" s="7">
+        <v>9</v>
+      </c>
+      <c r="E270" s="7">
+        <v>22</v>
+      </c>
+      <c r="F270" s="7">
+        <v>11</v>
+      </c>
+      <c r="G270" s="7">
+        <v>11</v>
+      </c>
+      <c r="H270" s="7">
+        <v>18</v>
+      </c>
+      <c r="I270" s="7">
+        <v>35</v>
+      </c>
+      <c r="J270" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A271" s="7">
+        <v>99</v>
+      </c>
+      <c r="B271" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C271" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D271" s="7">
+        <v>10</v>
+      </c>
+      <c r="E271" s="7">
+        <v>32</v>
+      </c>
+      <c r="F271" s="7">
+        <v>4</v>
+      </c>
+      <c r="G271" s="7">
+        <v>1</v>
+      </c>
+      <c r="H271" s="7">
+        <v>27</v>
+      </c>
+      <c r="I271" s="7">
+        <v>33</v>
+      </c>
+      <c r="J271" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A272" s="7">
+        <v>99</v>
+      </c>
+      <c r="B272" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C272" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D272" s="7">
+        <v>1</v>
+      </c>
+      <c r="E272" s="7">
+        <v>38</v>
+      </c>
+      <c r="F272" s="7">
+        <v>1</v>
+      </c>
+      <c r="G272" s="7">
+        <v>3</v>
+      </c>
+      <c r="H272" s="7">
+        <v>35</v>
+      </c>
+      <c r="I272" s="7">
+        <v>41</v>
+      </c>
+      <c r="J272" s="7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A273" s="7">
+        <v>99</v>
+      </c>
+      <c r="B273" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C273" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D273" s="7">
+        <v>2</v>
+      </c>
+      <c r="E273" s="7">
+        <v>29</v>
+      </c>
+      <c r="F273" s="7">
+        <v>1</v>
+      </c>
+      <c r="G273" s="7">
+        <v>3</v>
+      </c>
+      <c r="H273" s="7">
+        <v>44</v>
+      </c>
+      <c r="I273" s="7">
+        <v>32</v>
+      </c>
+      <c r="J273" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A274" s="7">
+        <v>99</v>
+      </c>
+      <c r="B274" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C274" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D274" s="7">
+        <v>3</v>
+      </c>
+      <c r="E274" s="7">
+        <v>33</v>
+      </c>
+      <c r="F274" s="7">
+        <v>3</v>
+      </c>
+      <c r="G274" s="7">
+        <v>6</v>
+      </c>
+      <c r="H274" s="7">
+        <v>36</v>
+      </c>
+      <c r="I274" s="7">
+        <v>39</v>
+      </c>
+      <c r="J274" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A275" s="7">
+        <v>99</v>
+      </c>
+      <c r="B275" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C275" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D275" s="7">
+        <v>4</v>
+      </c>
+      <c r="E275" s="7">
+        <v>34</v>
+      </c>
+      <c r="F275" s="7">
+        <v>2</v>
+      </c>
+      <c r="G275" s="7">
+        <v>5</v>
+      </c>
+      <c r="H275" s="7">
+        <v>36</v>
+      </c>
+      <c r="I275" s="7">
+        <v>39</v>
+      </c>
+      <c r="J275" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A276" s="7">
+        <v>99</v>
+      </c>
+      <c r="B276" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D276" s="7">
+        <v>5</v>
+      </c>
+      <c r="E276" s="7">
+        <v>32</v>
+      </c>
+      <c r="F276" s="7">
+        <v>3</v>
+      </c>
+      <c r="G276" s="7">
+        <v>6</v>
+      </c>
+      <c r="H276" s="7">
+        <v>37</v>
+      </c>
+      <c r="I276" s="7">
+        <v>38</v>
+      </c>
+      <c r="J276" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A277" s="7">
+        <v>99</v>
+      </c>
+      <c r="B277" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C277" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D277" s="7">
+        <v>6</v>
+      </c>
+      <c r="E277" s="7">
+        <v>39</v>
+      </c>
+      <c r="F277" s="7">
+        <v>4</v>
+      </c>
+      <c r="G277" s="7">
+        <v>2</v>
+      </c>
+      <c r="H277" s="7">
+        <v>33</v>
+      </c>
+      <c r="I277" s="7">
+        <v>41</v>
+      </c>
+      <c r="J277" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A278" s="7">
+        <v>99</v>
+      </c>
+      <c r="B278" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C278" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D278" s="7">
+        <v>7</v>
+      </c>
+      <c r="E278" s="7">
+        <v>30</v>
+      </c>
+      <c r="F278" s="7">
+        <v>1</v>
+      </c>
+      <c r="G278" s="7">
+        <v>2</v>
+      </c>
+      <c r="H278" s="7">
+        <v>26</v>
+      </c>
+      <c r="I278" s="7">
+        <v>32</v>
+      </c>
+      <c r="J278" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A279" s="7">
+        <v>99</v>
+      </c>
+      <c r="B279" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C279" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D279" s="7">
+        <v>8</v>
+      </c>
+      <c r="E279" s="7">
+        <v>28</v>
+      </c>
+      <c r="F279" s="7">
+        <v>3</v>
+      </c>
+      <c r="G279" s="7">
+        <v>5</v>
+      </c>
+      <c r="H279" s="7">
+        <v>29</v>
+      </c>
+      <c r="I279" s="7">
+        <v>33</v>
+      </c>
+      <c r="J279" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A280" s="7">
+        <v>99</v>
+      </c>
+      <c r="B280" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C280" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D280" s="7">
+        <v>9</v>
+      </c>
+      <c r="E280" s="7">
+        <v>20</v>
+      </c>
+      <c r="F280" s="7">
+        <v>1</v>
+      </c>
+      <c r="G280" s="7">
+        <v>0</v>
+      </c>
+      <c r="H280" s="7">
+        <v>16</v>
+      </c>
+      <c r="I280" s="7">
+        <v>20</v>
+      </c>
+      <c r="J280" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A281" s="7">
+        <v>99</v>
+      </c>
+      <c r="B281" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C281" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D281" s="7">
+        <v>10</v>
+      </c>
+      <c r="E281" s="7">
+        <v>33</v>
+      </c>
+      <c r="F281" s="7">
+        <v>3</v>
+      </c>
+      <c r="G281" s="7">
+        <v>7</v>
+      </c>
+      <c r="H281" s="7">
+        <v>35</v>
+      </c>
+      <c r="I281" s="7">
+        <v>40</v>
+      </c>
+      <c r="J281" s="7">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
